--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9813430000000002</v>
+        <v>0.7676553333333332</v>
       </c>
       <c r="H2">
-        <v>2.944029</v>
+        <v>2.302966</v>
       </c>
       <c r="I2">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="J2">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.940177333333333</v>
+        <v>2.318119</v>
       </c>
       <c r="N2">
-        <v>5.820532</v>
+        <v>6.954357</v>
       </c>
       <c r="O2">
-        <v>0.09618640556857148</v>
+        <v>0.1070970465647729</v>
       </c>
       <c r="P2">
-        <v>0.09618640556857148</v>
+        <v>0.1070970465647729</v>
       </c>
       <c r="Q2">
-        <v>1.903979444825334</v>
+        <v>1.779516413651333</v>
       </c>
       <c r="R2">
-        <v>17.135815003428</v>
+        <v>16.015647722862</v>
       </c>
       <c r="S2">
-        <v>0.03930618696946275</v>
+        <v>0.04002192840621934</v>
       </c>
       <c r="T2">
-        <v>0.03930618696946275</v>
+        <v>0.04002192840621934</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9813430000000002</v>
+        <v>0.7676553333333332</v>
       </c>
       <c r="H3">
-        <v>2.944029</v>
+        <v>2.302966</v>
       </c>
       <c r="I3">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="J3">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>1.922884666666667</v>
       </c>
       <c r="N3">
-        <v>5.768654</v>
+        <v>5.768654000000001</v>
       </c>
       <c r="O3">
-        <v>0.09532910277424163</v>
+        <v>0.0888372291002696</v>
       </c>
       <c r="P3">
-        <v>0.09532910277424163</v>
+        <v>0.0888372291002696</v>
       </c>
       <c r="Q3">
-        <v>1.887009407440667</v>
+        <v>1.476112669751555</v>
       </c>
       <c r="R3">
-        <v>16.983084666966</v>
+        <v>13.285014027764</v>
       </c>
       <c r="S3">
-        <v>0.03895585363780136</v>
+        <v>0.03319827518032952</v>
       </c>
       <c r="T3">
-        <v>0.03895585363780136</v>
+        <v>0.03319827518032951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>21</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.7676553333333332</v>
+      </c>
+      <c r="H4">
+        <v>2.302966</v>
+      </c>
+      <c r="I4">
+        <v>0.3736977786965754</v>
+      </c>
+      <c r="J4">
+        <v>0.3736977786965754</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.9813430000000002</v>
-      </c>
-      <c r="H4">
-        <v>2.944029</v>
-      </c>
-      <c r="I4">
-        <v>0.4086459696369597</v>
-      </c>
-      <c r="J4">
-        <v>0.4086459696369597</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.5843806666666667</v>
+        <v>0.108471</v>
       </c>
       <c r="N4">
-        <v>1.753142</v>
+        <v>0.325413</v>
       </c>
       <c r="O4">
-        <v>0.02897130836688065</v>
+        <v>0.005011357802566427</v>
       </c>
       <c r="P4">
-        <v>0.02897130836688065</v>
+        <v>0.005011357802566428</v>
       </c>
       <c r="Q4">
-        <v>0.5734778765686668</v>
+        <v>0.08326834166199999</v>
       </c>
       <c r="R4">
-        <v>5.161300889118</v>
+        <v>0.7494150749579999</v>
       </c>
       <c r="S4">
-        <v>0.01183900839923531</v>
+        <v>0.001872733279072825</v>
       </c>
       <c r="T4">
-        <v>0.01183900839923531</v>
+        <v>0.001872733279072825</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9813430000000002</v>
+        <v>0.7676553333333332</v>
       </c>
       <c r="H5">
-        <v>2.944029</v>
+        <v>2.302966</v>
       </c>
       <c r="I5">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="J5">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.72357133333333</v>
+        <v>17.29555733333333</v>
       </c>
       <c r="N5">
-        <v>47.170714</v>
+        <v>51.886672</v>
       </c>
       <c r="O5">
-        <v>0.7795131832903062</v>
+        <v>0.7990543665323911</v>
       </c>
       <c r="P5">
-        <v>0.7795131832903062</v>
+        <v>0.7990543665323911</v>
       </c>
       <c r="Q5">
-        <v>15.43021666296734</v>
+        <v>13.27702682990578</v>
       </c>
       <c r="R5">
-        <v>138.871949966706</v>
+        <v>119.493241469152</v>
       </c>
       <c r="S5">
-        <v>0.3185449206304602</v>
+        <v>0.2986048418309538</v>
       </c>
       <c r="T5">
-        <v>0.3185449206304602</v>
+        <v>0.2986048418309538</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.405983</v>
+        <v>0.811404</v>
       </c>
       <c r="H6">
-        <v>4.217949</v>
+        <v>2.434212</v>
       </c>
       <c r="I6">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="J6">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.940177333333333</v>
+        <v>2.318119</v>
       </c>
       <c r="N6">
-        <v>5.820532</v>
+        <v>6.954357</v>
       </c>
       <c r="O6">
-        <v>0.09618640556857148</v>
+        <v>0.1070970465647729</v>
       </c>
       <c r="P6">
-        <v>0.09618640556857148</v>
+        <v>0.1070970465647729</v>
       </c>
       <c r="Q6">
-        <v>2.727856347652</v>
+        <v>1.880931029076</v>
       </c>
       <c r="R6">
-        <v>24.550707128868</v>
+        <v>16.928379261684</v>
       </c>
       <c r="S6">
-        <v>0.05631449011597998</v>
+        <v>0.04230277754407143</v>
       </c>
       <c r="T6">
-        <v>0.05631449011597998</v>
+        <v>0.04230277754407143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.405983</v>
+        <v>0.811404</v>
       </c>
       <c r="H7">
-        <v>4.217949</v>
+        <v>2.434212</v>
       </c>
       <c r="I7">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="J7">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>1.922884666666667</v>
       </c>
       <c r="N7">
-        <v>5.768654</v>
+        <v>5.768654000000001</v>
       </c>
       <c r="O7">
-        <v>0.09532910277424163</v>
+        <v>0.0888372291002696</v>
       </c>
       <c r="P7">
-        <v>0.09532910277424163</v>
+        <v>0.0888372291002696</v>
       </c>
       <c r="Q7">
-        <v>2.703543152294</v>
+        <v>1.560236310072</v>
       </c>
       <c r="R7">
-        <v>24.331888370646</v>
+        <v>14.042126790648</v>
       </c>
       <c r="S7">
-        <v>0.05581256295223674</v>
+        <v>0.03509024441666107</v>
       </c>
       <c r="T7">
-        <v>0.05581256295223674</v>
+        <v>0.03509024441666107</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.405983</v>
+        <v>0.811404</v>
       </c>
       <c r="H8">
-        <v>4.217949</v>
+        <v>2.434212</v>
       </c>
       <c r="I8">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="J8">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.5843806666666667</v>
+        <v>0.108471</v>
       </c>
       <c r="N8">
-        <v>1.753142</v>
+        <v>0.325413</v>
       </c>
       <c r="O8">
-        <v>0.02897130836688065</v>
+        <v>0.005011357802566427</v>
       </c>
       <c r="P8">
-        <v>0.02897130836688065</v>
+        <v>0.005011357802566428</v>
       </c>
       <c r="Q8">
-        <v>0.821629282862</v>
+        <v>0.08801380328400001</v>
       </c>
       <c r="R8">
-        <v>7.394663545758</v>
+        <v>0.792124229556</v>
       </c>
       <c r="S8">
-        <v>0.01696190276608897</v>
+        <v>0.00197946032234884</v>
       </c>
       <c r="T8">
-        <v>0.01696190276608897</v>
+        <v>0.001979460322348841</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.405983</v>
+        <v>0.811404</v>
       </c>
       <c r="H9">
-        <v>4.217949</v>
+        <v>2.434212</v>
       </c>
       <c r="I9">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="J9">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.72357133333333</v>
+        <v>17.29555733333333</v>
       </c>
       <c r="N9">
-        <v>47.170714</v>
+        <v>51.886672</v>
       </c>
       <c r="O9">
-        <v>0.7795131832903062</v>
+        <v>0.7990543665323911</v>
       </c>
       <c r="P9">
-        <v>0.7795131832903062</v>
+        <v>0.7990543665323911</v>
       </c>
       <c r="Q9">
-        <v>22.107073993954</v>
+        <v>14.033684402496</v>
       </c>
       <c r="R9">
-        <v>198.963665945586</v>
+        <v>126.303159622464</v>
       </c>
       <c r="S9">
-        <v>0.4563834899141038</v>
+        <v>0.3156223275736636</v>
       </c>
       <c r="T9">
-        <v>0.4563834899141038</v>
+        <v>0.3156223275736636</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.01412433333333333</v>
+        <v>0.475155</v>
       </c>
       <c r="H10">
-        <v>0.04237299999999999</v>
+        <v>1.425465</v>
       </c>
       <c r="I10">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="J10">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.940177333333333</v>
+        <v>2.318119</v>
       </c>
       <c r="N10">
-        <v>5.820532</v>
+        <v>6.954357</v>
       </c>
       <c r="O10">
-        <v>0.09618640556857148</v>
+        <v>0.1070970465647729</v>
       </c>
       <c r="P10">
-        <v>0.09618640556857148</v>
+        <v>0.1070970465647729</v>
       </c>
       <c r="Q10">
-        <v>0.02740371138177777</v>
+        <v>1.101465833445</v>
       </c>
       <c r="R10">
-        <v>0.246633402436</v>
+        <v>9.913192501005</v>
       </c>
       <c r="S10">
-        <v>0.000565728483128748</v>
+        <v>0.02477234061448213</v>
       </c>
       <c r="T10">
-        <v>0.0005657284831287479</v>
+        <v>0.02477234061448214</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.01412433333333333</v>
+        <v>0.475155</v>
       </c>
       <c r="H11">
-        <v>0.04237299999999999</v>
+        <v>1.425465</v>
       </c>
       <c r="I11">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="J11">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>1.922884666666667</v>
       </c>
       <c r="N11">
-        <v>5.768654</v>
+        <v>5.768654000000001</v>
       </c>
       <c r="O11">
-        <v>0.09532910277424163</v>
+        <v>0.0888372291002696</v>
       </c>
       <c r="P11">
-        <v>0.09532910277424163</v>
+        <v>0.0888372291002696</v>
       </c>
       <c r="Q11">
-        <v>0.02715946399355555</v>
+        <v>0.9136682637900001</v>
       </c>
       <c r="R11">
-        <v>0.244435175942</v>
+        <v>8.223014374110001</v>
       </c>
       <c r="S11">
-        <v>0.0005606861842035375</v>
+        <v>0.020548709503279</v>
       </c>
       <c r="T11">
-        <v>0.0005606861842035374</v>
+        <v>0.020548709503279</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.475155</v>
+      </c>
+      <c r="H12">
+        <v>1.425465</v>
+      </c>
+      <c r="I12">
+        <v>0.2313074114466796</v>
+      </c>
+      <c r="J12">
+        <v>0.2313074114466796</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="L12">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G12">
-        <v>0.01412433333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.04237299999999999</v>
-      </c>
-      <c r="I12">
-        <v>0.005881584614630796</v>
-      </c>
-      <c r="J12">
-        <v>0.005881584614630796</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
-        <v>0.5843806666666667</v>
+        <v>0.108471</v>
       </c>
       <c r="N12">
-        <v>1.753142</v>
+        <v>0.325413</v>
       </c>
       <c r="O12">
-        <v>0.02897130836688065</v>
+        <v>0.005011357802566427</v>
       </c>
       <c r="P12">
-        <v>0.02897130836688065</v>
+        <v>0.005011357802566428</v>
       </c>
       <c r="Q12">
-        <v>0.008253987329555554</v>
+        <v>0.051540538005</v>
       </c>
       <c r="R12">
-        <v>0.07428588596599998</v>
+        <v>0.463864842045</v>
       </c>
       <c r="S12">
-        <v>0.0001703972015563697</v>
+        <v>0.001159164201144761</v>
       </c>
       <c r="T12">
-        <v>0.0001703972015563697</v>
+        <v>0.001159164201144761</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01412433333333333</v>
+        <v>0.475155</v>
       </c>
       <c r="H13">
-        <v>0.04237299999999999</v>
+        <v>1.425465</v>
       </c>
       <c r="I13">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="J13">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.72357133333333</v>
+        <v>17.29555733333333</v>
       </c>
       <c r="N13">
-        <v>47.170714</v>
+        <v>51.886672</v>
       </c>
       <c r="O13">
-        <v>0.7795131832903062</v>
+        <v>0.7990543665323911</v>
       </c>
       <c r="P13">
-        <v>0.7795131832903062</v>
+        <v>0.7990543665323911</v>
       </c>
       <c r="Q13">
-        <v>0.2220849627024444</v>
+        <v>8.21807054472</v>
       </c>
       <c r="R13">
-        <v>1.998764664322</v>
+        <v>73.96263490248</v>
       </c>
       <c r="S13">
-        <v>0.004584772745742141</v>
+        <v>0.1848271971277737</v>
       </c>
       <c r="T13">
-        <v>0.00458477274574214</v>
+        <v>0.1848271971277737</v>
       </c>
     </row>
   </sheetData>
